--- a/Data_science_outputs/500pop/output_results/output_analysis_2.xlsx
+++ b/Data_science_outputs/500pop/output_results/output_analysis_2.xlsx
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8723.944990061978</v>
+        <v>5274.75322135445</v>
       </c>
       <c r="C3" t="n">
         <v>3892.239263472203</v>
       </c>
       <c r="D3" t="n">
-        <v>3790.679897165185</v>
+        <v>358.7562405075986</v>
       </c>
       <c r="E3" t="n">
         <v>1031.992190000967</v>
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4468.444986589627</v>
+        <v>2320.636020797408</v>
       </c>
       <c r="C4" t="n">
         <v>2047.874548083309</v>
       </c>
       <c r="D4" t="n">
-        <v>3621.313916601316</v>
+        <v>378.0145394255289</v>
       </c>
       <c r="E4" t="n">
         <v>428.8948901619689</v>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>363.013</v>
+        <v>325.004</v>
       </c>
       <c r="C5" t="n">
         <v>85</v>
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4741.060000000003</v>
+        <v>3450.001</v>
       </c>
       <c r="C6" t="n">
         <v>2225.001</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9069.215500000017</v>
+        <v>4877.079499999999</v>
       </c>
       <c r="C7" t="n">
         <v>3413.011</v>
       </c>
       <c r="D7" t="n">
-        <v>3400</v>
+        <v>400</v>
       </c>
       <c r="E7" t="n">
         <v>1025.001</v>
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11832.013</v>
+        <v>7222.08675</v>
       </c>
       <c r="C8" t="n">
         <v>5568.330750000016</v>
       </c>
       <c r="D8" t="n">
-        <v>7680</v>
+        <v>640</v>
       </c>
       <c r="E8" t="n">
         <v>1375.004</v>
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18146.35500000004</v>
+        <v>13036.19600000002</v>
       </c>
       <c r="C9" t="n">
         <v>10408.18900000002</v>
       </c>
       <c r="D9" t="n">
-        <v>8900</v>
+        <v>3400</v>
       </c>
       <c r="E9" t="n">
         <v>3400.001</v>
@@ -644,7 +644,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>4585305486.777003</v>
+        <v>2772410293.144003</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -662,7 +662,7 @@
         <v>168144736.1820002</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4471913689661929</v>
+        <v>0.736338673650267</v>
       </c>
     </row>
     <row r="12">
@@ -676,10 +676,10 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>1992381353.952</v>
+        <v>188562280.0109999</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4345144199656015</v>
+        <v>0.06801384357766332</v>
       </c>
     </row>
     <row r="13">
@@ -696,7 +696,7 @@
         <v>542415095.0649999</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1182942110682056</v>
+        <v>0.1956474827720697</v>
       </c>
     </row>
   </sheetData>
